--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>prophecy</t>
-  </si>
-  <si>
-    <t>gospel</t>
-  </si>
-  <si>
-    <t>wisdom</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>apocalyptic</t>
-  </si>
-  <si>
-    <t>lyric</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,100 +366,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>apocalyptic</t>
+        </is>
       </c>
       <c r="B2" t="n">
+        <v>32.24773232303031</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35.54896866929293</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30.5217654</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34.112561</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lyric</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30.95328428020835</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35.43131750034723</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>letter</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>34.45450248505749</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C5" t="n">
         <v>29.65818249348658</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>prophecy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>32.04909800329218</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C6" t="n">
         <v>35.39011386927299</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>32.20032737572463</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36.05092443490339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>wisdom</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>27.1462402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.4825152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>gospel</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>33.80775722088888</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C9" t="n">
         <v>31.63713273881481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>27.1462402</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.4825152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>32.20032737572463</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36.05092443490339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>34.70784138055559</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33.51473254259258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>30.95328428020835</v>
-      </c>
-      <c r="C8" t="n">
-        <v>35.43131750034723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30.5217654</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.112561</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,53 +381,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.24773232303031</v>
+        <v>30.5217654</v>
       </c>
       <c r="C2" t="n">
-        <v>35.54896866929293</v>
+        <v>34.112561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.5217654</v>
+        <v>34.50393560222223</v>
       </c>
       <c r="C3" t="n">
-        <v>34.112561</v>
+        <v>29.1487569437037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.95328428020835</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C4" t="n">
-        <v>35.43131750034723</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.45450248505749</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C5" t="n">
-        <v>29.65818249348658</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="6">
@@ -446,14 +446,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.20032737572463</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C7" t="n">
-        <v>36.05092443490339</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="8">
@@ -472,14 +472,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33.80775722088888</v>
+        <v>32.20032737572463</v>
       </c>
       <c r="C9" t="n">
-        <v>31.63713273881481</v>
+        <v>36.05092443490339</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.5217654</v>
+        <v>27.1462402</v>
       </c>
       <c r="C2" t="n">
-        <v>34.112561</v>
+        <v>36.4825152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.50393560222223</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C3" t="n">
-        <v>29.1487569437037</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.24773232303031</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C4" t="n">
-        <v>35.54896866929293</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.95328428020835</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C5" t="n">
-        <v>35.43131750034723</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.04909800329218</v>
+        <v>34.50393560222223</v>
       </c>
       <c r="C6" t="n">
-        <v>35.39011386927299</v>
+        <v>29.1487569437037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.80775722088888</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C7" t="n">
-        <v>31.63713273881481</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.1462402</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4825152</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.20032737572463</v>
+        <v>30.5217654</v>
       </c>
       <c r="C9" t="n">
-        <v>36.05092443490339</v>
+        <v>34.112561</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,40 +381,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.1462402</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C2" t="n">
-        <v>36.4825152</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.80775722088888</v>
+        <v>34.50393560222223</v>
       </c>
       <c r="C3" t="n">
-        <v>31.63713273881481</v>
+        <v>29.1487569437037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.95328428020835</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C4" t="n">
-        <v>35.43131750034723</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="5">
@@ -433,53 +433,53 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.50393560222223</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1487569437037</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.04909800329218</v>
+        <v>27.1462402</v>
       </c>
       <c r="C7" t="n">
-        <v>35.39011386927299</v>
+        <v>36.4825152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.24773232303031</v>
+        <v>30.5217654</v>
       </c>
       <c r="C8" t="n">
-        <v>35.54896866929293</v>
+        <v>34.112561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.5217654</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C9" t="n">
-        <v>34.112561</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.04909800329218</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C2" t="n">
-        <v>35.39011386927299</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.50393560222223</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C3" t="n">
-        <v>29.1487569437037</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.80775722088888</v>
+        <v>27.1462402</v>
       </c>
       <c r="C4" t="n">
-        <v>31.63713273881481</v>
+        <v>36.4825152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.9524206297491</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C5" t="n">
-        <v>36.09865291409798</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95328428020835</v>
+        <v>34.50393560222223</v>
       </c>
       <c r="C6" t="n">
-        <v>35.43131750034723</v>
+        <v>29.1487569437037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.1462402</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4825152</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.5217654</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C8" t="n">
-        <v>34.112561</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.24773232303031</v>
+        <v>31.28937830344828</v>
       </c>
       <c r="C9" t="n">
-        <v>35.54896866929293</v>
+        <v>34.86825168965518</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.24773232303031</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C2" t="n">
-        <v>35.54896866929293</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.80775722088888</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C3" t="n">
-        <v>31.63713273881481</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.1462402</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C4" t="n">
-        <v>36.4825152</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.04909800329218</v>
+        <v>31.28937830344828</v>
       </c>
       <c r="C5" t="n">
-        <v>35.39011386927299</v>
+        <v>34.86825168965518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.50393560222223</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1487569437037</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.9524206297491</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C7" t="n">
-        <v>36.09865291409798</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.95328428020835</v>
+        <v>34.50393560222223</v>
       </c>
       <c r="C8" t="n">
-        <v>35.43131750034723</v>
+        <v>29.1487569437037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.28937830344828</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C9" t="n">
-        <v>34.86825168965518</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,53 +381,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.80775722088888</v>
+        <v>31.28937830344828</v>
       </c>
       <c r="C2" t="n">
-        <v>31.63713273881481</v>
+        <v>34.86825168965518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.77928134285714</v>
+        <v>34.53737994731184</v>
       </c>
       <c r="C3" t="n">
-        <v>35.48837334285714</v>
+        <v>29.36316048422938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.95328428020835</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C4" t="n">
-        <v>35.43131750034723</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.28937830344828</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C5" t="n">
-        <v>34.86825168965518</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
     <row r="6">
@@ -446,40 +446,40 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.24773232303031</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C7" t="n">
-        <v>35.54896866929293</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.50393560222223</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1487569437037</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.9524206297491</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C9" t="n">
-        <v>36.09865291409798</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.28937830344828</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C2" t="n">
-        <v>34.86825168965518</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.53737994731184</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C3" t="n">
-        <v>29.36316048422938</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.80775722088888</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C4" t="n">
-        <v>31.63713273881481</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.95328428020835</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C5" t="n">
-        <v>35.43131750034723</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.04909800329218</v>
+        <v>31.65596558106063</v>
       </c>
       <c r="C6" t="n">
-        <v>35.39011386927299</v>
+        <v>35.77621887525253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.77928134285714</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C7" t="n">
-        <v>35.48837334285714</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.9524206297491</v>
+        <v>34.53737994731184</v>
       </c>
       <c r="C8" t="n">
-        <v>36.09865291409798</v>
+        <v>29.36316048422938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.24773232303031</v>
+        <v>30.95328428020835</v>
       </c>
       <c r="C9" t="n">
-        <v>35.54896866929293</v>
+        <v>35.43131750034723</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.9524206297491</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C2" t="n">
-        <v>36.09865291409798</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.24773232303031</v>
+        <v>34.53737994731184</v>
       </c>
       <c r="C3" t="n">
-        <v>35.54896866929293</v>
+        <v>29.36316048422938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.77928134285714</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C4" t="n">
-        <v>35.48837334285714</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.04909800329218</v>
+        <v>31.05265941960786</v>
       </c>
       <c r="C5" t="n">
-        <v>35.39011386927299</v>
+        <v>35.46695629150328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.65596558106063</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C6" t="n">
-        <v>35.77621887525253</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.80775722088888</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C7" t="n">
-        <v>31.63713273881481</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.53737994731184</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C8" t="n">
-        <v>29.36316048422938</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.95328428020835</v>
+        <v>31.65596558106063</v>
       </c>
       <c r="C9" t="n">
-        <v>35.43131750034723</v>
+        <v>35.77621887525253</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,66 +381,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.80775722088888</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C2" t="n">
-        <v>31.63713273881481</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.53737994731184</v>
+        <v>31.65596558106063</v>
       </c>
       <c r="C3" t="n">
-        <v>29.36316048422938</v>
+        <v>35.77621887525253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.9524206297491</v>
+        <v>31.05265941960786</v>
       </c>
       <c r="C4" t="n">
-        <v>36.09865291409798</v>
+        <v>35.46695629150328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.05265941960786</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C5" t="n">
-        <v>35.46695629150328</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.77928134285714</v>
+        <v>33.80775722088888</v>
       </c>
       <c r="C6" t="n">
-        <v>35.48837334285714</v>
+        <v>31.63713273881481</v>
       </c>
     </row>
     <row r="7">
@@ -459,27 +459,27 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.24773232303031</v>
+        <v>34.53737994731184</v>
       </c>
       <c r="C8" t="n">
-        <v>35.54896866929293</v>
+        <v>29.36316048422938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.65596558106063</v>
+        <v>31.9524206297491</v>
       </c>
       <c r="C9" t="n">
-        <v>35.77621887525253</v>
+        <v>36.09865291409798</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/genres_location_mean.xlsx
+++ b/documentation/genres_location_mean.xlsx
@@ -381,105 +381,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.77928134285714</v>
+        <v>31.96169734751772</v>
       </c>
       <c r="C2" t="n">
-        <v>35.48837334285714</v>
+        <v>36.09322040969268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.65596558106063</v>
+        <v>32.04909800329218</v>
       </c>
       <c r="C3" t="n">
-        <v>35.77621887525253</v>
+        <v>35.39011386927299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>lyric</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.05265941960786</v>
+        <v>34.53737994731184</v>
       </c>
       <c r="C4" t="n">
-        <v>35.46695629150328</v>
+        <v>29.36316048422938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>apocalyptic</t>
+          <t>gospel</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.24773232303031</v>
+        <v>33.77564828008657</v>
       </c>
       <c r="C5" t="n">
-        <v>35.54896866929293</v>
+        <v>31.73797520014429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>gospel</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.80775722088888</v>
+        <v>31.65596558106063</v>
       </c>
       <c r="C6" t="n">
-        <v>31.63713273881481</v>
+        <v>35.77621887525253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>prophecy</t>
+          <t>apocalyptic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.04909800329218</v>
+        <v>32.24773232303031</v>
       </c>
       <c r="C7" t="n">
-        <v>35.39011386927299</v>
+        <v>35.54896866929293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>lyric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.53737994731184</v>
+        <v>31.05265941960786</v>
       </c>
       <c r="C8" t="n">
-        <v>29.36316048422938</v>
+        <v>35.46695629150328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.9524206297491</v>
+        <v>27.77928134285714</v>
       </c>
       <c r="C9" t="n">
-        <v>36.09865291409798</v>
+        <v>35.48837334285714</v>
       </c>
     </row>
   </sheetData>
